--- a/simulationData/1948_2019_Inflation_historic_Australia.xlsx
+++ b/simulationData/1948_2019_Inflation_historic_Australia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\gr4sp\experiments\simulationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571ECA76-0EF5-429D-8050-D747EB2E4917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B51B78C-44F1-4B3E-89DD-1FE5CB86B1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75F78C39-964A-4158-B6BA-BD969DC96C9F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -50,13 +50,22 @@
     <t>dec</t>
   </si>
   <si>
-    <t>ann</t>
-  </si>
-  <si>
     <t>INF%</t>
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>ann  (ave quarters)</t>
   </si>
 </sst>
 </file>
@@ -414,13 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D1DD62-7CC2-4E44-8BA2-9E64252AED73}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -439,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -459,6 +471,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F2" s="1">
+        <f>AVERAGE(B2:E2)</f>
         <v>1.6E-2</v>
       </c>
     </row>
@@ -479,7 +492,8 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>1.9E-2</v>
+        <f t="shared" ref="F3:F66" si="0">AVERAGE(B3:E3)</f>
+        <v>1.925E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -499,7 +513,8 @@
         <v>1.9E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>1.9E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.925E-2</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -520,7 +535,8 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2749999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,6 +556,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -560,7 +577,8 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4749999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,7 +598,8 @@
         <v>2.7E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,7 +619,8 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,6 +640,7 @@
         <v>0.03</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="0"/>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -640,7 +661,8 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>2.9000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.9249999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,7 +682,8 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7750000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,7 +703,8 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>4.3999999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3500000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,7 +724,8 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>2.3E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.325E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,7 +745,8 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5500000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,6 +766,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="0"/>
         <v>2.7E-2</v>
       </c>
     </row>
@@ -760,7 +787,8 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>2.3E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.325E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,7 +808,8 @@
         <v>2.4E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>2.7E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7249999999999996E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,7 +829,8 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>3.1E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.9749999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,7 +850,8 @@
         <v>3.1E-2</v>
       </c>
       <c r="F20" s="1">
-        <v>4.2999999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4249999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,7 +871,8 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="F21" s="1">
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4499999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,7 +892,8 @@
         <v>1.9E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4749999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,7 +913,8 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>7.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.7500000000000008E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,7 +934,8 @@
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F24" s="1">
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.5000000000000005E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,7 +955,8 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>2.5999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6250000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,7 +976,8 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>4.7E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5999999999999992E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,8 +996,9 @@
       <c r="E27" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F27" s="2">
-        <v>0.02</v>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.975E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,7 +1018,8 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7499999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,8 +1038,9 @@
       <c r="E29" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="2">
-        <v>0.01</v>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,7 +1060,8 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>3.1E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.175E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,7 +1081,8 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.3499999999999996E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,7 +1102,8 @@
         <v>7.8E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>7.3999999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5250000000000011E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,7 +1123,8 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>7.2999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.2250000000000009E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,7 +1144,8 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>8.4000000000000005E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5500000000000007E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1120,7 +1165,8 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>9.1999999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.0249999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1140,7 +1186,8 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7250000000000004E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1206,8 @@
       <c r="E37" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
@@ -1180,7 +1228,8 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="F38" s="1">
-        <v>0.10299999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.10075000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,7 +1249,8 @@
         <v>0.113</v>
       </c>
       <c r="F39" s="1">
-        <v>0.111</v>
+        <f t="shared" si="0"/>
+        <v>0.11349999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1220,7 +1270,8 @@
         <v>0.11</v>
       </c>
       <c r="F40" s="1">
-        <v>9.5000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.4500000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1240,7 +1291,8 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F41" s="1">
-        <v>0.105</v>
+        <f t="shared" si="0"/>
+        <v>0.10125000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,7 +1312,8 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="F42" s="1">
-        <v>9.0999999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.1249999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,7 +1333,8 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="F43" s="1">
-        <v>7.9000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0250000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1354,8 @@
         <v>9.4E-2</v>
       </c>
       <c r="F44" s="1">
-        <v>0.122</v>
+        <f t="shared" si="0"/>
+        <v>0.124</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,7 +1375,8 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="F45" s="1">
-        <v>0.13100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,7 +1396,8 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="F46" s="1">
-        <v>0.151</v>
+        <f t="shared" si="0"/>
+        <v>0.1525</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,7 +1417,8 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="F47" s="1">
-        <v>0.158</v>
+        <f t="shared" si="0"/>
+        <v>0.15375000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,7 +1438,8 @@
         <v>0.125</v>
       </c>
       <c r="F48" s="1">
-        <v>9.0999999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.0749999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,7 +1459,8 @@
         <v>4.7E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>5.8000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0499999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,7 +1480,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F50" s="1">
-        <v>6.0999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1249999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,7 +1501,8 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,6 +1522,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="F52" s="1">
+        <f t="shared" si="0"/>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -1480,7 +1543,8 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F53" s="1">
-        <v>3.4000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,7 +1564,8 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F54" s="1">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.4750000000000003E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,7 +1585,8 @@
         <v>2.4E-2</v>
       </c>
       <c r="F55" s="1">
-        <v>2.4E-2</v>
+        <f>AVERAGE(B55:E55)</f>
+        <v>3.3249999999999995E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1540,7 +1606,8 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F56" s="1">
-        <v>3.6999999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.4250000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,7 +1627,8 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F57" s="1">
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.8749999999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,7 +1648,8 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F58" s="1">
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,8 +1668,9 @@
       <c r="E59" s="2">
         <v>0</v>
       </c>
-      <c r="F59" s="2">
-        <v>0</v>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2499999999999999E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,7 +1690,8 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>1.2999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,7 +1711,8 @@
         <v>0.04</v>
       </c>
       <c r="F61" s="1">
-        <v>4.1000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.7250000000000005E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,7 +1732,8 @@
         <v>2.7E-2</v>
       </c>
       <c r="F62" s="1">
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0750000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,8 +1752,9 @@
       <c r="E63" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="F63" s="2">
-        <v>0</v>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,7 +1774,8 @@
         <v>1.4E-2</v>
       </c>
       <c r="F64" s="1">
-        <v>2.9000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.9249999999999998E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,7 +1795,8 @@
         <v>0.06</v>
       </c>
       <c r="F65" s="1">
-        <v>6.0999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6999999999999995E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,7 +1816,8 @@
         <v>3.1E-2</v>
       </c>
       <c r="F66" s="1">
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.525E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,6 +1837,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="F67" s="1">
+        <f t="shared" ref="F67:F72" si="1">AVERAGE(B67:E67)</f>
         <v>1.6E-2</v>
       </c>
     </row>
@@ -1780,7 +1858,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="F68" s="1">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.5249999999999999E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,7 +1879,8 @@
         <v>0.105</v>
       </c>
       <c r="F69" s="1">
-        <v>0.17299999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.17500000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,7 +1900,8 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="F70" s="1">
-        <v>0.182</v>
+        <f t="shared" si="1"/>
+        <v>0.19324999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,8 +1920,9 @@
       <c r="E71" s="1">
         <v>0.122</v>
       </c>
-      <c r="F71" s="2">
-        <v>0.1</v>
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6749999999999994E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,10 +1930,10 @@
         <v>1949</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1">
         <v>0.108</v>
@@ -1860,16 +1942,44 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F72" s="1">
-        <v>1.105</v>
+        <f t="shared" si="1"/>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="1">
+        <f>MEDIAN(F2:F72)</f>
+        <v>3.3249999999999995E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="1">
-        <f>MEDIAN(F2:F71)</f>
-        <v>3.3000000000000002E-2</v>
+      <c r="F76" s="1">
+        <f>AVERAGE(F2:F72)</f>
+        <v>5.0588028169014074E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1">
+        <f>MAX(F2:F72)</f>
+        <v>0.19324999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="1">
+        <f>MIN(F2:F72)</f>
+        <v>-3.2499999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/simulationData/1948_2019_Inflation_historic_Australia.xlsx
+++ b/simulationData/1948_2019_Inflation_historic_Australia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\gr4sp\experiments\simulationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B51B78C-44F1-4B3E-89DD-1FE5CB86B1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8EE8BA-3130-4AC9-A538-3902D02D4CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75F78C39-964A-4158-B6BA-BD969DC96C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -67,6 +70,12 @@
   <si>
     <t>ann  (ave quarters)</t>
   </si>
+  <si>
+    <t>filter to get min and max bounds for Eet</t>
+  </si>
+  <si>
+    <t>From 1990 to 2019</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +84,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,17 +117,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D1DD62-7CC2-4E44-8BA2-9E64252AED73}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +453,7 @@
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +472,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -474,8 +496,11 @@
         <f>AVERAGE(B2:E2)</f>
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>-3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -495,8 +520,11 @@
         <f t="shared" ref="F3:F66" si="0">AVERAGE(B3:E3)</f>
         <v>1.925E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -517,8 +545,11 @@
         <v>1.925E-2</v>
       </c>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -538,8 +569,11 @@
         <f t="shared" si="0"/>
         <v>1.2749999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -559,8 +593,11 @@
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -580,8 +617,11 @@
         <f t="shared" si="0"/>
         <v>2.4749999999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -601,8 +641,11 @@
         <f t="shared" si="0"/>
         <v>2.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1.2749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -622,8 +665,11 @@
         <f t="shared" si="0"/>
         <v>1.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1.4749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -643,8 +689,11 @@
         <f t="shared" si="0"/>
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -664,8 +713,11 @@
         <f t="shared" si="0"/>
         <v>2.9249999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1.525E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -685,8 +737,11 @@
         <f t="shared" si="0"/>
         <v>1.7750000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -706,8 +761,11 @@
         <f t="shared" si="0"/>
         <v>4.3500000000000004E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -727,8 +785,11 @@
         <f t="shared" si="0"/>
         <v>2.325E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1.7499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -748,8 +809,11 @@
         <f t="shared" si="0"/>
         <v>3.5500000000000004E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -769,8 +833,11 @@
         <f t="shared" si="0"/>
         <v>2.7E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1.7750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -790,8 +857,11 @@
         <f t="shared" si="0"/>
         <v>2.325E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>1.925E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -811,8 +881,11 @@
         <f t="shared" si="0"/>
         <v>2.7249999999999996E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1.925E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -832,8 +905,11 @@
         <f t="shared" si="0"/>
         <v>2.9749999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1.975E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2001</v>
       </c>
@@ -853,8 +929,11 @@
         <f t="shared" si="0"/>
         <v>4.4249999999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2.0750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -874,8 +953,11 @@
         <f t="shared" si="0"/>
         <v>4.4499999999999998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -895,8 +977,11 @@
         <f t="shared" si="0"/>
         <v>1.4749999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>2.325E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -916,8 +1001,11 @@
         <f t="shared" si="0"/>
         <v>8.7500000000000008E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>2.325E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1997</v>
       </c>
@@ -937,8 +1025,11 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1996</v>
       </c>
@@ -958,8 +1049,11 @@
         <f t="shared" si="0"/>
         <v>2.6250000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>2.4749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1995</v>
       </c>
@@ -979,8 +1073,11 @@
         <f t="shared" si="0"/>
         <v>4.5999999999999992E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1994</v>
       </c>
@@ -1000,8 +1097,11 @@
         <f t="shared" si="0"/>
         <v>1.975E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>2.6250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1993</v>
       </c>
@@ -1021,8 +1121,11 @@
         <f t="shared" si="0"/>
         <v>1.7499999999999998E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1992</v>
       </c>
@@ -1042,8 +1145,11 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>2.7249999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1991</v>
       </c>
@@ -1063,8 +1169,11 @@
         <f t="shared" si="0"/>
         <v>3.175E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>2.8749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1990</v>
       </c>
@@ -1084,8 +1193,11 @@
         <f t="shared" si="0"/>
         <v>7.3499999999999996E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>2.9249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1989</v>
       </c>
@@ -1105,8 +1217,11 @@
         <f t="shared" si="0"/>
         <v>7.5250000000000011E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>2.9249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1988</v>
       </c>
@@ -1126,8 +1241,11 @@
         <f t="shared" si="0"/>
         <v>7.2250000000000009E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>2.9749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1987</v>
       </c>
@@ -1147,8 +1265,11 @@
         <f t="shared" si="0"/>
         <v>8.5500000000000007E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>3.175E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1986</v>
       </c>
@@ -1168,8 +1289,11 @@
         <f t="shared" si="0"/>
         <v>9.0249999999999997E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1985</v>
       </c>
@@ -1189,8 +1313,11 @@
         <f t="shared" si="0"/>
         <v>6.7250000000000004E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1984</v>
       </c>
@@ -1210,8 +1337,11 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>3.3249999999999995E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1983</v>
       </c>
@@ -1231,8 +1361,11 @@
         <f t="shared" si="0"/>
         <v>0.10075000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>3.4250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1982</v>
       </c>
@@ -1252,8 +1385,11 @@
         <f t="shared" si="0"/>
         <v>0.11349999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1981</v>
       </c>
@@ -1273,8 +1409,11 @@
         <f t="shared" si="0"/>
         <v>9.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>3.4750000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1980</v>
       </c>
@@ -1294,8 +1433,11 @@
         <f t="shared" si="0"/>
         <v>0.10125000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>3.5500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1979</v>
       </c>
@@ -1315,8 +1457,11 @@
         <f t="shared" si="0"/>
         <v>9.1249999999999998E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>3.7250000000000005E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1978</v>
       </c>
@@ -1336,8 +1481,11 @@
         <f t="shared" si="0"/>
         <v>8.0250000000000002E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1977</v>
       </c>
@@ -1357,8 +1505,11 @@
         <f t="shared" si="0"/>
         <v>0.124</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>4.3500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1976</v>
       </c>
@@ -1378,8 +1529,11 @@
         <f t="shared" si="0"/>
         <v>0.13300000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>4.4249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1975</v>
       </c>
@@ -1399,8 +1553,11 @@
         <f t="shared" si="0"/>
         <v>0.1525</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1974</v>
       </c>
@@ -1420,8 +1577,11 @@
         <f t="shared" si="0"/>
         <v>0.15375000000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>4.5249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1973</v>
       </c>
@@ -1441,8 +1601,11 @@
         <f t="shared" si="0"/>
         <v>9.0749999999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>4.5999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1972</v>
       </c>
@@ -1462,8 +1625,11 @@
         <f t="shared" si="0"/>
         <v>6.0499999999999998E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>5.6999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1971</v>
       </c>
@@ -1483,8 +1649,11 @@
         <f t="shared" si="0"/>
         <v>6.1249999999999999E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1970</v>
       </c>
@@ -1504,8 +1673,11 @@
         <f t="shared" si="0"/>
         <v>3.4500000000000003E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>6.1249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1969</v>
       </c>
@@ -1525,8 +1697,11 @@
         <f t="shared" si="0"/>
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>6.7250000000000004E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1968</v>
       </c>
@@ -1546,8 +1721,11 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>7.2250000000000009E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1967</v>
       </c>
@@ -1567,8 +1745,11 @@
         <f t="shared" si="0"/>
         <v>3.4750000000000003E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1966</v>
       </c>
@@ -1588,8 +1769,11 @@
         <f>AVERAGE(B55:E55)</f>
         <v>3.3249999999999995E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>7.5250000000000011E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1965</v>
       </c>
@@ -1609,8 +1793,11 @@
         <f t="shared" si="0"/>
         <v>3.4250000000000003E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>8.0250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1964</v>
       </c>
@@ -1630,8 +1817,11 @@
         <f t="shared" si="0"/>
         <v>2.8749999999999998E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1963</v>
       </c>
@@ -1651,8 +1841,11 @@
         <f t="shared" si="0"/>
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>8.6749999999999994E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1962</v>
       </c>
@@ -1672,8 +1865,11 @@
         <f t="shared" si="0"/>
         <v>-3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>9.0249999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1961</v>
       </c>
@@ -1693,8 +1889,11 @@
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>9.0749999999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1960</v>
       </c>
@@ -1714,8 +1913,11 @@
         <f t="shared" si="0"/>
         <v>3.7250000000000005E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>9.1249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1959</v>
       </c>
@@ -1735,8 +1937,11 @@
         <f t="shared" si="0"/>
         <v>2.0750000000000001E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1958</v>
       </c>
@@ -1756,8 +1961,11 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1957</v>
       </c>
@@ -1777,8 +1985,11 @@
         <f t="shared" si="0"/>
         <v>2.9249999999999998E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>0.10075000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1956</v>
       </c>
@@ -1798,8 +2009,11 @@
         <f t="shared" si="0"/>
         <v>5.6999999999999995E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>0.10125000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1955</v>
       </c>
@@ -1819,8 +2033,11 @@
         <f t="shared" si="0"/>
         <v>1.525E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>0.11349999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1954</v>
       </c>
@@ -1840,8 +2057,11 @@
         <f t="shared" ref="F67:F72" si="1">AVERAGE(B67:E67)</f>
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1953</v>
       </c>
@@ -1861,8 +2081,11 @@
         <f t="shared" si="1"/>
         <v>4.5249999999999999E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1952</v>
       </c>
@@ -1882,8 +2105,11 @@
         <f t="shared" si="1"/>
         <v>0.17500000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>0.1525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1951</v>
       </c>
@@ -1903,8 +2129,11 @@
         <f t="shared" si="1"/>
         <v>0.19324999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>0.15375000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1950</v>
       </c>
@@ -1924,8 +2153,11 @@
         <f t="shared" si="1"/>
         <v>8.6749999999999994E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>0.17500000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1949</v>
       </c>
@@ -1945,8 +2177,16 @@
         <f t="shared" si="1"/>
         <v>9.35E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>0.19324999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>6</v>
       </c>
@@ -1954,8 +2194,15 @@
         <f>MEDIAN(F2:F72)</f>
         <v>3.3249999999999995E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="4">
+        <f>MEDIAN($I$2:$I$31)</f>
+        <v>1.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>7</v>
       </c>
@@ -1963,8 +2210,15 @@
         <f>AVERAGE(F2:F72)</f>
         <v>5.0588028169014074E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="4">
+        <f>AVERAGE($I$2:$I$31)</f>
+        <v>1.7841666666666665E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>8</v>
       </c>
@@ -1972,8 +2226,15 @@
         <f>MAX(F2:F72)</f>
         <v>0.19324999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="4">
+        <f>MIN($I$2:$I$31)</f>
+        <v>-3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>9</v>
       </c>
@@ -1981,8 +2242,20 @@
         <f>MIN(F2:F72)</f>
         <v>-3.2499999999999999E-3</v>
       </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="4">
+        <f>MAX($I$2:$I$31)</f>
+        <v>2.9249999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I72" xr:uid="{3E995217-7DA8-4322-9FBF-92E7EB2B403E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I72">
+      <sortCondition ref="I1:I72"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>